--- a/Modelagem/SPMedGroup.xlsx
+++ b/Modelagem/SPMedGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44337427830\Desktop\senai_spmedgroup_sprint_bd_tarde_MatheusNascimento\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\Desktop\Sprint1-bd-Tarde-MatheusNascimento\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A7C95-9F64-4A67-AB83-1C79787D05C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40BF74-A787-4B95-8E7C-B0FEC7CE59C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{20BCDC32-3215-4C86-AE7C-5252F4F1700F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20BCDC32-3215-4C86-AE7C-5252F4F1700F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela SpMedGroup" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +557,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -627,42 +633,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,9 +658,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,25 +671,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,86 +699,107 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1137,867 +1120,861 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="64.6640625" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="64.7109375" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>45429385</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E4" s="17"/>
-      <c r="G4" s="41">
-        <v>1</v>
-      </c>
-      <c r="H4" s="42">
-        <v>1</v>
-      </c>
-      <c r="I4" s="42">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+      <c r="G4" s="27">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28">
         <v>2</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="29">
         <v>43850.625</v>
       </c>
-      <c r="K4" s="41">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="K4" s="27">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="G5" s="41">
+      <c r="E5" s="41"/>
+      <c r="G5" s="27">
         <v>2</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="28">
         <v>2</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="28">
         <v>2</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="29">
         <v>43836.416666666664</v>
       </c>
-      <c r="K5" s="41">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="K5" s="27">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="27">
         <v>3</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="28">
         <v>3</v>
       </c>
-      <c r="I6" s="42">
-        <v>1</v>
-      </c>
-      <c r="J6" s="43">
+      <c r="I6" s="28">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
         <v>43868.458333333336</v>
       </c>
-      <c r="K6" s="41">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="27">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="27">
         <v>4</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="28">
         <v>4</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="28">
         <v>3</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="29">
         <v>43137.416666666664</v>
       </c>
-      <c r="K7" s="41">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="27">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="27">
         <v>5</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="28">
         <v>5</v>
       </c>
-      <c r="I8" s="42">
-        <v>1</v>
-      </c>
-      <c r="J8" s="43">
+      <c r="I8" s="28">
+        <v>1</v>
+      </c>
+      <c r="J8" s="29">
         <v>43503.458854166667</v>
       </c>
-      <c r="K8" s="41">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="21">
+      <c r="K8" s="27">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="25">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
         <v>3</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="15">
         <v>94839859000</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="16">
         <v>30602</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="14">
         <v>2</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="15">
         <v>73556944057</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="16">
         <v>37095</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="14">
         <v>3</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="14">
         <v>3</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="15">
         <v>16839338002</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="16">
         <v>28773</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="14">
         <v>3</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="15">
         <v>14332654765</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="16">
         <v>31333</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="14">
         <v>5</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="14">
         <v>3</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="15">
         <v>91305348010</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="16">
         <v>27633</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="14">
         <v>6</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="14">
         <v>3</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="15">
         <v>79799299004</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="16">
         <v>26379</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="14">
         <v>7</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="14">
         <v>3</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="15">
         <v>13771913039</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="16">
         <v>43164</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>11</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="J22" s="50" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="J22" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>12</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>13</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="34">
-        <v>1</v>
-      </c>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="34">
-        <v>1</v>
-      </c>
-      <c r="J24" s="47">
-        <v>1</v>
-      </c>
-      <c r="K24" s="55" t="s">
+      <c r="H24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="47">
+      <c r="L24" s="9">
         <v>21231235</v>
       </c>
-      <c r="M24" s="56"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>14</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="22">
         <v>2</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="34">
-        <v>1</v>
-      </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="H25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>15</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="22">
         <v>3</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="34">
-        <v>1</v>
-      </c>
-      <c r="J26" s="57" t="s">
+      <c r="H26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>16</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="K27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>17</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="47">
-        <v>1</v>
-      </c>
-      <c r="K28" s="55" t="s">
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="47">
+      <c r="L28" s="7">
         <v>123123</v>
       </c>
-      <c r="M28" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J29" s="47">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="7">
         <v>2</v>
       </c>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="47">
+      <c r="L29" s="7">
         <v>43412455</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J30" s="47">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="7">
         <v>3</v>
       </c>
-      <c r="K30" s="55" t="s">
+      <c r="K30" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="L30" s="47" t="s">
+      <c r="L30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J32" s="4" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J33" s="3" t="s">
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="48"/>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="54" t="s">
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="12">
+        <v>1</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="12">
         <v>1223414</v>
       </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J35" s="2">
+      <c r="M34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="12">
         <v>2</v>
       </c>
-      <c r="K35" s="54" t="s">
+      <c r="K35" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="12">
         <v>123123</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J36" s="2">
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="12">
         <v>3</v>
       </c>
-      <c r="K36" s="54" t="s">
+      <c r="K36" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J37" s="2">
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="12">
         <v>4</v>
       </c>
-      <c r="K37" s="54" t="s">
+      <c r="K37" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="12">
         <v>123123</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J26:M26"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D5:E5"/>
@@ -2006,6 +1983,7 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J26:M26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L14" r:id="rId1" xr:uid="{9D928AC5-1887-4989-ADF8-F9E573933171}"/>

--- a/Modelagem/SPMedGroup.xlsx
+++ b/Modelagem/SPMedGroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\Desktop\Sprint1-bd-Tarde-MatheusNascimento\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44337427830\Desktop\senai_spmedgroup_sprint_bd_tarde_MatheusNascimento\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40BF74-A787-4B95-8E7C-B0FEC7CE59C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1405C51-5465-4D8C-AA94-3E776838572B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20BCDC32-3215-4C86-AE7C-5252F4F1700F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Clinica</t>
   </si>
@@ -564,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -633,12 +633,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,6 +744,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,58 +783,19 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1117,38 +1113,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C249764-9497-449C-9392-852CBCB10145}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="64.7109375" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="64.6640625" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1164,16 +1161,16 @@
       <c r="E2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1208,7 +1205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E4" s="11"/>
       <c r="G4" s="27">
         <v>1</v>
@@ -1229,17 +1226,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="40"/>
       <c r="G5" s="27">
         <v>2</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -1355,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D9" s="12">
         <v>3</v>
       </c>
@@ -1364,13 +1361,13 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1378,26 +1375,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1432,7 +1429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -1467,7 +1464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -1572,7 +1569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -1607,7 +1604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>9</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -1685,27 +1682,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="J22" s="53" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="J22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>12</v>
       </c>
@@ -1727,17 +1725,20 @@
       <c r="H23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="37" t="s">
         <v>97</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>13</v>
       </c>
@@ -1762,14 +1763,17 @@
       <c r="J24" s="9">
         <v>1</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="36">
+        <v>1</v>
+      </c>
+      <c r="L24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="9">
+      <c r="M24" s="9">
         <v>21231235</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>14</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>15</v>
       </c>
@@ -1814,14 +1818,15 @@
       <c r="H26" s="22">
         <v>1</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>16</v>
       </c>
@@ -1832,16 +1837,19 @@
         <v>10</v>
       </c>
       <c r="K27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>17</v>
       </c>
@@ -1851,59 +1859,69 @@
       <c r="J28" s="7">
         <v>1</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="35">
+        <v>2</v>
+      </c>
+      <c r="L28" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>123123</v>
       </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J29" s="7">
         <v>2</v>
       </c>
-      <c r="K29" s="44" t="s">
+      <c r="K29" s="35">
+        <v>2</v>
+      </c>
+      <c r="L29" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>43412455</v>
       </c>
-      <c r="M29" s="7">
+      <c r="N29" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J30" s="7">
         <v>3</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="35">
+        <v>2</v>
+      </c>
+      <c r="L30" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M30" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="46" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J32" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="48"/>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J33" s="13" t="s">
         <v>10</v>
       </c>
@@ -1911,79 +1929,94 @@
         <v>98</v>
       </c>
       <c r="L33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="N33" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J34" s="12">
         <v>1</v>
       </c>
-      <c r="K34" s="43" t="s">
+      <c r="K34" s="34">
+        <v>3</v>
+      </c>
+      <c r="L34" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="12">
+      <c r="M34" s="12">
         <v>1223414</v>
       </c>
-      <c r="M34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J35" s="12">
         <v>2</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="34">
+        <v>3</v>
+      </c>
+      <c r="L35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="12">
+      <c r="M35" s="12">
         <v>123123</v>
       </c>
-      <c r="M35" s="12">
+      <c r="N35" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J36" s="12">
         <v>3</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="34">
+        <v>3</v>
+      </c>
+      <c r="L36" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="M36" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M36" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J37" s="12">
         <v>4</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="34">
+        <v>3</v>
+      </c>
+      <c r="L37" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="12">
+      <c r="M37" s="12">
         <v>123123</v>
       </c>
-      <c r="M37" s="12">
+      <c r="N37" s="12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J32:M32"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J32:N32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L14" r:id="rId1" xr:uid="{9D928AC5-1887-4989-ADF8-F9E573933171}"/>
@@ -1996,12 +2029,16 @@
     <hyperlink ref="G24" r:id="rId8" xr:uid="{20C83353-99EB-4BD0-A58C-157DB05F6835}"/>
     <hyperlink ref="G25" r:id="rId9" xr:uid="{858D346D-2056-4583-81B0-AE2EE5CDB804}"/>
     <hyperlink ref="G26" r:id="rId10" xr:uid="{A896DEC6-02B0-4EBB-8FDF-67343C15819E}"/>
-    <hyperlink ref="K24" r:id="rId11" xr:uid="{228AEC75-9968-42A9-84F5-689FE475C77D}"/>
-    <hyperlink ref="K28" r:id="rId12" xr:uid="{12F3568F-8340-4173-B472-1B26498170F8}"/>
-    <hyperlink ref="K29" r:id="rId13" xr:uid="{318CA42E-19A4-4A1C-894F-0ABF55EEA3ED}"/>
-    <hyperlink ref="K30" r:id="rId14" xr:uid="{33BDC063-8B87-4578-992E-DF45EF3C0BD6}"/>
+    <hyperlink ref="K24" r:id="rId11" display="matheus@spmedicalgroup.com.br" xr:uid="{228AEC75-9968-42A9-84F5-689FE475C77D}"/>
+    <hyperlink ref="K28" r:id="rId12" display="ricardo.lemos@spmedicalgroup.com.br" xr:uid="{12F3568F-8340-4173-B472-1B26498170F8}"/>
+    <hyperlink ref="K29" r:id="rId13" display="roberto.possarle@spmedicalgroup.com.br" xr:uid="{318CA42E-19A4-4A1C-894F-0ABF55EEA3ED}"/>
+    <hyperlink ref="K30" r:id="rId14" display="helena.souza@spmedicalgroup.com.br" xr:uid="{33BDC063-8B87-4578-992E-DF45EF3C0BD6}"/>
+    <hyperlink ref="L24" r:id="rId15" xr:uid="{BB4A8DB7-4428-4AB1-BA2B-FBDD89F4DC0C}"/>
+    <hyperlink ref="L28" r:id="rId16" xr:uid="{6DA40648-372E-4320-AF0D-9D2622FF2AD9}"/>
+    <hyperlink ref="L29" r:id="rId17" xr:uid="{C71D184F-8E31-4CDE-B64B-B3D8EFDE4EBE}"/>
+    <hyperlink ref="L30" r:id="rId18" xr:uid="{35861211-649D-4013-9D83-E3D5C02A8C7D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Modelagem/SPMedGroup.xlsx
+++ b/Modelagem/SPMedGroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44337427830\Desktop\senai_spmedgroup_sprint_bd_tarde_MatheusNascimento\Modelagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\Desktop\Sprint1-bd-Tarde-MatheusNascimento\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1405C51-5465-4D8C-AA94-3E776838572B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7043A578-1C0D-45CF-87B2-FD94B7F55D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20BCDC32-3215-4C86-AE7C-5252F4F1700F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Clinica</t>
   </si>
@@ -340,6 +340,42 @@
   </si>
   <si>
     <t>sdjfhjsdf</t>
+  </si>
+  <si>
+    <t>IDTipoUsuario</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>São Paulo - SP</t>
+  </si>
+  <si>
+    <t>Rua ouvidor portugal</t>
+  </si>
+  <si>
+    <t>Rua Alváro filho</t>
+  </si>
+  <si>
+    <t>Rua Maria Rosseti</t>
+  </si>
+  <si>
+    <t>Av. Paulista</t>
+  </si>
+  <si>
+    <t>Av. Yervant</t>
+  </si>
+  <si>
+    <t>Av. Santo Amaro</t>
+  </si>
+  <si>
+    <t>Rua Maria Alfredo</t>
   </si>
 </sst>
 </file>
@@ -649,7 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,6 +822,9 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,7 +834,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1115,28 +1163,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C249764-9497-449C-9392-852CBCB10145}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="64.6640625" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1193,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1218,7 @@
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1205,7 +1253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E4" s="11"/>
       <c r="G4" s="27">
         <v>1</v>
@@ -1226,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1288,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1320,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -1352,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="12">
         <v>3</v>
       </c>
@@ -1361,13 +1409,13 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1394,7 +1442,7 @@
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1405,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>35</v>
@@ -1429,7 +1477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -1464,7 +1512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1499,7 +1547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1534,7 +1582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -1569,7 +1617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -1604,7 +1652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -1639,7 +1687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>9</v>
       </c>
@@ -1674,7 +1722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -1682,7 +1730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -1696,14 +1744,14 @@
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>12</v>
       </c>
@@ -1738,7 +1786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>13</v>
       </c>
@@ -1773,7 +1821,7 @@
         <v>21231235</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>14</v>
       </c>
@@ -1796,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>15</v>
       </c>
@@ -1818,15 +1866,15 @@
       <c r="H26" s="22">
         <v>1</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>16</v>
       </c>
@@ -1849,7 +1897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>17</v>
       </c>
@@ -1872,7 +1920,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
       <c r="J29" s="7">
         <v>2</v>
       </c>
@@ -1889,7 +1944,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="52" t="s">
+        <v>94</v>
+      </c>
       <c r="J30" s="7">
         <v>3</v>
       </c>
@@ -1906,22 +1976,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="12">
+        <v>414</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J32" s="50" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="12">
+        <v>23</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="12">
+        <v>2</v>
+      </c>
+      <c r="J32" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-    </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="12">
+        <v>3</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="12">
+        <v>90</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="12">
+        <v>3</v>
+      </c>
       <c r="J33" s="13" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +2053,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="12">
+        <v>4</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="12">
+        <v>789</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="12">
+        <v>4</v>
+      </c>
       <c r="J34" s="12">
         <v>1</v>
       </c>
@@ -1955,7 +2085,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="12">
+        <v>12</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="12">
+        <v>5</v>
+      </c>
       <c r="J35" s="12">
         <v>2</v>
       </c>
@@ -1972,7 +2117,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="12">
+        <v>6</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="12">
+        <v>6</v>
+      </c>
       <c r="J36" s="12">
         <v>3</v>
       </c>
@@ -1989,7 +2149,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D37" s="12">
+        <v>7</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="12">
+        <v>394</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="12">
+        <v>7</v>
+      </c>
       <c r="J37" s="12">
         <v>4</v>
       </c>
@@ -2007,7 +2182,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="D29:H29"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D12:L12"/>
@@ -2015,8 +2193,6 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="J32:N32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L14" r:id="rId1" xr:uid="{9D928AC5-1887-4989-ADF8-F9E573933171}"/>
